--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BG3Modding\FF14Astrologian\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574363D8-E783-4594-B79D-B60875E1B6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE1216-50BF-4901-BB32-85B20DFC87E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{F363394A-5768-46C7-B066-FEA8E3D644E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{F363394A-5768-46C7-B066-FEA8E3D644E4}"/>
   </bookViews>
   <sheets>
     <sheet name="职业成长" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,6 @@
   </si>
   <si>
     <t>18m，单体
-每回合一次，伤害额外附加2d6（DS）</t>
-  </si>
-  <si>
-    <t>18m，单体
 附赠动作+2</t>
   </si>
   <si>
@@ -1074,6 +1070,10 @@
   </si>
   <si>
     <t>18m，魅力豁免，5回合</t>
+  </si>
+  <si>
+    <t>18m，单体
+每回合一次，伤害额外附加2d6（A类）</t>
   </si>
 </sst>
 </file>
@@ -1329,6 +1329,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,12 +1352,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1690,7 +1690,7 @@
   <dimension ref="B2:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1702,189 +1702,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28" t="s">
+      <c r="D12" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
+      <c r="K12" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="18">
         <v>1</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="25">
+      <c r="B15" s="27">
         <v>3</v>
       </c>
       <c r="C15" s="17">
@@ -1982,7 +1982,7 @@
       <c r="S15" s="17"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="25"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="17">
         <v>3</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -2016,7 +2016,7 @@
       <c r="S16" s="17"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="25"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="17">
         <v>4</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="S17" s="17"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="25">
+      <c r="B18" s="27">
         <v>4</v>
       </c>
       <c r="C18" s="17">
@@ -2090,7 +2090,7 @@
       <c r="S18" s="17"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="25"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="17">
         <v>6</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="S19" s="17"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="25"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="17">
         <v>7</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="S20" s="17"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="25">
+      <c r="B21" s="27">
         <v>5</v>
       </c>
       <c r="C21" s="17">
@@ -2200,7 +2200,7 @@
       <c r="S21" s="17"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="25"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="17">
         <v>9</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="S22" s="17"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="17">
         <v>10</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="S23" s="17"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B24" s="25"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="17">
         <v>11</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="S24" s="17"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="17">
         <v>12</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="S25" s="17"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B26" s="25">
+      <c r="B26" s="27">
         <v>6</v>
       </c>
       <c r="C26" s="17">
@@ -2382,7 +2382,7 @@
       <c r="S26" s="17"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B27" s="25"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="17">
         <v>14</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="S27" s="17"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="17">
         <v>15</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="S28" s="17"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B29" s="25"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="17">
         <v>16</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="S29" s="17"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B30" s="25">
+      <c r="B30" s="27">
         <v>7</v>
       </c>
       <c r="C30" s="17">
@@ -2548,7 +2548,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B31" s="25"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="17">
         <v>18</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B32" s="25"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="17">
         <v>19</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B33" s="25"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="17">
         <v>20</v>
       </c>
@@ -2675,6 +2675,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="E3:S3"/>
@@ -2691,12 +2697,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE717252-590C-4516-9793-9B1E0FC3DA27}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2748,7 +2748,7 @@
         <v>69</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>68</v>
@@ -2782,7 +2782,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>61</v>
@@ -2819,7 +2819,7 @@
         <v>58</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -2861,275 +2861,275 @@
   <sheetData>
     <row r="7" spans="6:20" x14ac:dyDescent="0.35">
       <c r="Q7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="6:20" x14ac:dyDescent="0.35">
       <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="T11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
@@ -3166,334 +3166,334 @@
     </row>
     <row r="16" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="18" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="N19" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="S19" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="O20" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="P20" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="N21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F22" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="O23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.35">
       <c r="P27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.35">
       <c r="P28" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T28" s="1">
         <v>32</v>
@@ -3504,10 +3504,10 @@
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.35">
       <c r="P29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T29" s="1">
         <v>14</v>
@@ -3518,10 +3518,10 @@
     </row>
     <row r="30" spans="6:21" x14ac:dyDescent="0.35">
       <c r="P30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T30" s="1">
         <v>14</v>
@@ -3550,386 +3550,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17375D6A-9EF5-481A-ADDC-43A287682212}">
   <dimension ref="B2:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="11.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.7265625" style="25"/>
+    <col min="2" max="2" width="11.453125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="25"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="32" t="s">
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4</v>
+      </c>
+      <c r="G4" s="25">
+        <v>5</v>
+      </c>
+      <c r="H4" s="25">
+        <v>6</v>
+      </c>
+      <c r="I4" s="25">
+        <v>7</v>
+      </c>
+      <c r="J4" s="25">
+        <v>8</v>
+      </c>
+      <c r="K4" s="25">
+        <v>9</v>
+      </c>
+      <c r="L4" s="25">
+        <v>10</v>
+      </c>
+      <c r="M4" s="25">
+        <v>11</v>
+      </c>
+      <c r="N4" s="25">
+        <v>12</v>
+      </c>
+      <c r="O4" s="25">
+        <v>13</v>
+      </c>
+      <c r="P4" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>15</v>
+      </c>
+      <c r="R4" s="25">
+        <v>16</v>
+      </c>
+      <c r="S4" s="25">
+        <v>17</v>
+      </c>
+      <c r="T4" s="25">
+        <v>18</v>
+      </c>
+      <c r="U4" s="25">
+        <v>19</v>
+      </c>
+      <c r="V4" s="25">
+        <v>20</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="25">
+        <v>10</v>
+      </c>
+      <c r="D5" s="25">
+        <v>10</v>
+      </c>
+      <c r="E5" s="25">
+        <v>10</v>
+      </c>
+      <c r="F5" s="25">
+        <v>10</v>
+      </c>
+      <c r="G5" s="25">
+        <v>20</v>
+      </c>
+      <c r="H5" s="25">
+        <v>20</v>
+      </c>
+      <c r="I5" s="25">
+        <v>20</v>
+      </c>
+      <c r="J5" s="25">
+        <v>20</v>
+      </c>
+      <c r="K5" s="25">
+        <v>20</v>
+      </c>
+      <c r="L5" s="25">
+        <v>30</v>
+      </c>
+      <c r="M5" s="25">
+        <v>30</v>
+      </c>
+      <c r="N5" s="25">
+        <v>30</v>
+      </c>
+      <c r="O5" s="25">
+        <v>30</v>
+      </c>
+      <c r="P5" s="25">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>30</v>
+      </c>
+      <c r="R5" s="25">
+        <v>30</v>
+      </c>
+      <c r="S5" s="25">
+        <v>40</v>
+      </c>
+      <c r="T5" s="25">
+        <v>40</v>
+      </c>
+      <c r="U5" s="25">
+        <v>40</v>
+      </c>
+      <c r="V5" s="25">
+        <v>40</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C3" s="32"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
-      <c r="D4" s="31">
-        <v>2</v>
-      </c>
-      <c r="E4" s="31">
-        <v>3</v>
-      </c>
-      <c r="F4" s="31">
-        <v>4</v>
-      </c>
-      <c r="G4" s="31">
-        <v>5</v>
-      </c>
-      <c r="H4" s="31">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="25">
+        <v>8</v>
+      </c>
+      <c r="D6" s="25">
+        <v>8</v>
+      </c>
+      <c r="E6" s="25">
+        <v>8</v>
+      </c>
+      <c r="F6" s="25">
+        <v>8</v>
+      </c>
+      <c r="G6" s="25">
+        <v>16</v>
+      </c>
+      <c r="H6" s="25">
+        <v>16</v>
+      </c>
+      <c r="I6" s="25">
+        <v>16</v>
+      </c>
+      <c r="J6" s="25">
+        <v>16</v>
+      </c>
+      <c r="K6" s="25">
+        <v>16</v>
+      </c>
+      <c r="L6" s="25">
+        <v>24</v>
+      </c>
+      <c r="M6" s="25">
+        <v>24</v>
+      </c>
+      <c r="N6" s="25">
+        <v>24</v>
+      </c>
+      <c r="O6" s="25">
+        <v>24</v>
+      </c>
+      <c r="P6" s="25">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>24</v>
+      </c>
+      <c r="R6" s="25">
+        <v>24</v>
+      </c>
+      <c r="S6" s="25">
+        <v>32</v>
+      </c>
+      <c r="T6" s="25">
+        <v>32</v>
+      </c>
+      <c r="U6" s="25">
+        <v>32</v>
+      </c>
+      <c r="V6" s="25">
+        <v>32</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="25">
+        <v>12</v>
+      </c>
+      <c r="D7" s="25">
+        <v>12</v>
+      </c>
+      <c r="E7" s="25">
+        <v>12</v>
+      </c>
+      <c r="F7" s="25">
+        <v>12</v>
+      </c>
+      <c r="G7" s="25">
+        <v>24</v>
+      </c>
+      <c r="H7" s="25">
+        <v>24</v>
+      </c>
+      <c r="I7" s="25">
+        <v>24</v>
+      </c>
+      <c r="J7" s="25">
+        <v>24</v>
+      </c>
+      <c r="K7" s="25">
+        <v>24</v>
+      </c>
+      <c r="L7" s="25">
+        <v>36</v>
+      </c>
+      <c r="M7" s="25">
+        <v>36</v>
+      </c>
+      <c r="N7" s="25">
+        <v>36</v>
+      </c>
+      <c r="O7" s="25">
+        <v>36</v>
+      </c>
+      <c r="P7" s="25">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>36</v>
+      </c>
+      <c r="R7" s="25">
+        <v>36</v>
+      </c>
+      <c r="S7" s="25">
+        <v>48</v>
+      </c>
+      <c r="T7" s="25">
+        <v>48</v>
+      </c>
+      <c r="U7" s="25">
+        <v>48</v>
+      </c>
+      <c r="V7" s="25">
+        <v>48</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="31">
-        <v>7</v>
-      </c>
-      <c r="J4" s="31">
+      <c r="C8" s="25">
         <v>8</v>
       </c>
-      <c r="K4" s="31">
-        <v>9</v>
-      </c>
-      <c r="L4" s="31">
-        <v>10</v>
-      </c>
-      <c r="M4" s="31">
-        <v>11</v>
-      </c>
-      <c r="N4" s="31">
-        <v>12</v>
-      </c>
-      <c r="O4" s="31">
-        <v>13</v>
-      </c>
-      <c r="P4" s="31">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="31">
-        <v>15</v>
-      </c>
-      <c r="R4" s="31">
-        <v>16</v>
-      </c>
-      <c r="S4" s="31">
+      <c r="D8" s="25">
+        <v>8</v>
+      </c>
+      <c r="E8" s="25">
+        <v>8</v>
+      </c>
+      <c r="F8" s="25">
+        <v>8</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="31">
-        <v>18</v>
-      </c>
-      <c r="U4" s="31">
-        <v>19</v>
-      </c>
-      <c r="V4" s="31">
+      <c r="G9" s="25">
         <v>20</v>
       </c>
-      <c r="W4" s="31" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="31">
-        <v>10</v>
-      </c>
-      <c r="D5" s="31">
-        <v>10</v>
-      </c>
-      <c r="E5" s="31">
-        <v>10</v>
-      </c>
-      <c r="F5" s="31">
-        <v>10</v>
-      </c>
-      <c r="G5" s="31">
+      <c r="H9" s="25">
         <v>20</v>
       </c>
-      <c r="H5" s="31">
+      <c r="I9" s="25">
         <v>20</v>
       </c>
-      <c r="I5" s="31">
+      <c r="J9" s="25">
         <v>20</v>
       </c>
-      <c r="J5" s="31">
+      <c r="K9" s="25">
         <v>20</v>
       </c>
-      <c r="K5" s="31">
-        <v>20</v>
-      </c>
-      <c r="L5" s="31">
+      <c r="L9" s="25">
         <v>30</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M9" s="25">
         <v>30</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N9" s="25">
         <v>30</v>
       </c>
-      <c r="O5" s="31">
-        <v>30</v>
-      </c>
-      <c r="P5" s="31">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="31">
-        <v>30</v>
-      </c>
-      <c r="R5" s="31">
-        <v>30</v>
-      </c>
-      <c r="S5" s="31">
-        <v>40</v>
-      </c>
-      <c r="T5" s="31">
-        <v>40</v>
-      </c>
-      <c r="U5" s="31">
-        <v>40</v>
-      </c>
-      <c r="V5" s="31">
-        <v>40</v>
-      </c>
-      <c r="W5" s="32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="31">
-        <v>8</v>
-      </c>
-      <c r="D6" s="31">
-        <v>8</v>
-      </c>
-      <c r="E6" s="31">
-        <v>8</v>
-      </c>
-      <c r="F6" s="31">
-        <v>8</v>
-      </c>
-      <c r="G6" s="31">
-        <v>16</v>
-      </c>
-      <c r="H6" s="31">
-        <v>16</v>
-      </c>
-      <c r="I6" s="31">
-        <v>16</v>
-      </c>
-      <c r="J6" s="31">
-        <v>16</v>
-      </c>
-      <c r="K6" s="31">
-        <v>16</v>
-      </c>
-      <c r="L6" s="31">
-        <v>24</v>
-      </c>
-      <c r="M6" s="31">
-        <v>24</v>
-      </c>
-      <c r="N6" s="31">
-        <v>24</v>
-      </c>
-      <c r="O6" s="31">
-        <v>24</v>
-      </c>
-      <c r="P6" s="31">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>24</v>
-      </c>
-      <c r="R6" s="31">
-        <v>24</v>
-      </c>
-      <c r="S6" s="31">
-        <v>32</v>
-      </c>
-      <c r="T6" s="31">
-        <v>32</v>
-      </c>
-      <c r="U6" s="31">
-        <v>32</v>
-      </c>
-      <c r="V6" s="31">
-        <v>32</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B7" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="31">
-        <v>12</v>
-      </c>
-      <c r="D7" s="31">
-        <v>12</v>
-      </c>
-      <c r="E7" s="31">
-        <v>12</v>
-      </c>
-      <c r="F7" s="31">
-        <v>12</v>
-      </c>
-      <c r="G7" s="31">
-        <v>24</v>
-      </c>
-      <c r="H7" s="31">
-        <v>24</v>
-      </c>
-      <c r="I7" s="31">
-        <v>24</v>
-      </c>
-      <c r="J7" s="31">
-        <v>24</v>
-      </c>
-      <c r="K7" s="31">
-        <v>24</v>
-      </c>
-      <c r="L7" s="31">
+      <c r="W9" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="25">
         <v>36</v>
       </c>
-      <c r="M7" s="31">
+      <c r="P10" s="25">
         <v>36</v>
       </c>
-      <c r="N7" s="31">
+      <c r="Q10" s="25">
         <v>36</v>
       </c>
-      <c r="O7" s="31">
+      <c r="R10" s="25">
         <v>36</v>
       </c>
-      <c r="P7" s="31">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>36</v>
-      </c>
-      <c r="R7" s="31">
-        <v>36</v>
-      </c>
-      <c r="S7" s="31">
+      <c r="S10" s="25">
         <v>48</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T10" s="25">
         <v>48</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U10" s="25">
         <v>48</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V10" s="25">
         <v>48</v>
       </c>
-      <c r="W7" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="31">
-        <v>8</v>
-      </c>
-      <c r="D8" s="31">
-        <v>8</v>
-      </c>
-      <c r="E8" s="31">
-        <v>8</v>
-      </c>
-      <c r="F8" s="31">
-        <v>8</v>
-      </c>
-      <c r="W8" s="32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="31">
-        <v>20</v>
-      </c>
-      <c r="H9" s="31">
-        <v>20</v>
-      </c>
-      <c r="I9" s="31">
-        <v>20</v>
-      </c>
-      <c r="J9" s="31">
-        <v>20</v>
-      </c>
-      <c r="K9" s="31">
-        <v>20</v>
-      </c>
-      <c r="L9" s="31">
-        <v>30</v>
-      </c>
-      <c r="M9" s="31">
-        <v>30</v>
-      </c>
-      <c r="N9" s="31">
-        <v>30</v>
-      </c>
-      <c r="W9" s="32" t="s">
+      <c r="W10" s="26" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="31">
-        <v>36</v>
-      </c>
-      <c r="P10" s="31">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="31">
-        <v>36</v>
-      </c>
-      <c r="R10" s="31">
-        <v>36</v>
-      </c>
-      <c r="S10" s="31">
-        <v>48</v>
-      </c>
-      <c r="T10" s="31">
-        <v>48</v>
-      </c>
-      <c r="U10" s="31">
-        <v>48</v>
-      </c>
-      <c r="V10" s="31">
-        <v>48</v>
-      </c>
-      <c r="W10" s="32" t="s">
-        <v>294</v>
-      </c>
-    </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="W12" s="32"/>
+      <c r="W12" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3951,7 +3951,7 @@
   <sheetData>
     <row r="8" spans="6:21" x14ac:dyDescent="0.35">
       <c r="H8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N8" s="1">
         <v>70</v>
@@ -3968,80 +3968,80 @@
     </row>
     <row r="9" spans="6:21" x14ac:dyDescent="0.35">
       <c r="H9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="O9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="10" spans="6:21" x14ac:dyDescent="0.35">
       <c r="H10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F11" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="6:21" x14ac:dyDescent="0.35">
@@ -4049,7 +4049,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J12" s="1">
         <v>5</v>
@@ -4078,80 +4078,80 @@
     </row>
     <row r="13" spans="6:21" x14ac:dyDescent="0.35">
       <c r="G13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="6:21" x14ac:dyDescent="0.35">
       <c r="G15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
@@ -4191,63 +4191,63 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="N16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H17" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="J17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.35">
@@ -4256,90 +4256,90 @@
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K18" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="N18" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="O18" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="P18" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="Q18" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H20" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.35">
@@ -4348,28 +4348,28 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K21" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="M21" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="N21" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="O21" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="P21" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="Q21" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.35">
@@ -4380,74 +4380,74 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M22" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="N22" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="P22" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H24" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="25" spans="6:17" x14ac:dyDescent="0.35">
@@ -4455,91 +4455,91 @@
         <v>31</v>
       </c>
       <c r="L25" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="N25" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="N25" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="O25" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P25" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q25" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="26" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="O26" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="27" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H27" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="N27" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="O27" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="P27" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="Q27" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="I28" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BG3Modding\FF14Astrologian\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE1216-50BF-4901-BB32-85B20DFC87E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63F154-7C21-4500-9AD3-0CFC0F87ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{F363394A-5768-46C7-B066-FEA8E3D644E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F363394A-5768-46C7-B066-FEA8E3D644E4}"/>
   </bookViews>
   <sheets>
     <sheet name="职业成长" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="296">
   <si>
     <t>凶星</t>
   </si>
@@ -1074,6 +1074,9 @@
   <si>
     <t>18m，单体
 每回合一次，伤害额外附加2d6（A类）</t>
+  </si>
+  <si>
+    <t>康复</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1251,11 +1254,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1351,6 +1365,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1689,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF16F92-0EE1-4BB9-A5ED-585D7E09F591}">
   <dimension ref="B2:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,7 +1952,9 @@
       <c r="F14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23" t="s">
+        <v>295</v>
+      </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17">
         <v>2</v>
@@ -1950,7 +1975,7 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="27">
+      <c r="B15" s="33">
         <v>3</v>
       </c>
       <c r="C15" s="17">
@@ -1965,10 +1990,16 @@
       <c r="F15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="17">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17">
+        <v>4</v>
+      </c>
       <c r="K15" s="17">
         <v>3</v>
       </c>
@@ -1982,7 +2013,7 @@
       <c r="S15" s="17"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="27"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="17">
         <v>3</v>
       </c>
@@ -1999,8 +2030,12 @@
         <v>266</v>
       </c>
       <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="I16" s="17">
+        <v>2</v>
+      </c>
+      <c r="J16" s="17">
+        <v>5</v>
+      </c>
       <c r="K16" s="17">
         <v>4</v>
       </c>
@@ -2016,15 +2051,17 @@
       <c r="S16" s="17"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="27"/>
+      <c r="B17" s="33">
+        <v>4</v>
+      </c>
       <c r="C17" s="17">
         <v>4</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>33</v>
@@ -2033,8 +2070,12 @@
         <v>10</v>
       </c>
       <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="I17" s="17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="17">
+        <v>6</v>
+      </c>
       <c r="K17" s="17">
         <v>4</v>
       </c>
@@ -2050,29 +2091,28 @@
       <c r="S17" s="17"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="27">
-        <v>4</v>
-      </c>
+      <c r="B18" s="35"/>
       <c r="C18" s="17">
         <v>5</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>28</v>
+      <c r="D18" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="17">
+        <v>3</v>
+      </c>
+      <c r="J18" s="17">
+        <v>7</v>
+      </c>
       <c r="K18" s="17">
         <v>4</v>
       </c>
@@ -2090,7 +2130,7 @@
       <c r="S18" s="17"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="27"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="17">
         <v>6</v>
       </c>
@@ -2107,8 +2147,12 @@
         <v>19</v>
       </c>
       <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="17">
+        <v>3</v>
+      </c>
+      <c r="J19" s="17">
+        <v>8</v>
+      </c>
       <c r="K19" s="17">
         <v>4</v>
       </c>
@@ -2126,7 +2170,7 @@
       <c r="S19" s="17"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="27"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="17">
         <v>7</v>
       </c>
@@ -2141,8 +2185,12 @@
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="17">
+        <v>3</v>
+      </c>
+      <c r="J20" s="17">
+        <v>9</v>
+      </c>
       <c r="K20" s="17">
         <v>4</v>
       </c>
@@ -2179,8 +2227,12 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="17">
+        <v>3</v>
+      </c>
+      <c r="J21" s="17">
+        <v>10</v>
+      </c>
       <c r="K21" s="17">
         <v>4</v>
       </c>
@@ -2211,8 +2263,12 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="I22" s="17">
+        <v>3</v>
+      </c>
+      <c r="J22" s="17">
+        <v>11</v>
+      </c>
       <c r="K22" s="17">
         <v>4</v>
       </c>
@@ -2245,8 +2301,12 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="I23" s="17">
+        <v>4</v>
+      </c>
+      <c r="J23" s="17">
+        <v>12</v>
+      </c>
       <c r="K23" s="17">
         <v>4</v>
       </c>
@@ -2279,8 +2339,12 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="I24" s="17">
+        <v>4</v>
+      </c>
+      <c r="J24" s="17">
+        <v>13</v>
+      </c>
       <c r="K24" s="17">
         <v>4</v>
       </c>
@@ -2315,8 +2379,12 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="17">
+        <v>4</v>
+      </c>
+      <c r="J25" s="17">
+        <v>14</v>
+      </c>
       <c r="K25" s="17">
         <v>4</v>
       </c>
@@ -2355,8 +2423,12 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="I26" s="17">
+        <v>4</v>
+      </c>
+      <c r="J26" s="17">
+        <v>15</v>
+      </c>
       <c r="K26" s="17">
         <v>4</v>
       </c>
@@ -2393,8 +2465,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="I27" s="17">
+        <v>4</v>
+      </c>
+      <c r="J27" s="17">
+        <v>16</v>
+      </c>
       <c r="K27" s="17">
         <v>4</v>
       </c>
@@ -2431,8 +2507,12 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="I28" s="17">
+        <v>4</v>
+      </c>
+      <c r="J28" s="17">
+        <v>17</v>
+      </c>
       <c r="K28" s="17">
         <v>4</v>
       </c>
@@ -2471,8 +2551,12 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="I29" s="17">
+        <v>4</v>
+      </c>
+      <c r="J29" s="17">
+        <v>18</v>
+      </c>
       <c r="K29" s="17">
         <v>4</v>
       </c>
@@ -2517,8 +2601,12 @@
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="I30" s="17">
+        <v>4</v>
+      </c>
+      <c r="J30" s="17">
+        <v>19</v>
+      </c>
       <c r="K30" s="17">
         <v>4</v>
       </c>
@@ -2559,8 +2647,12 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="I31" s="17">
+        <v>4</v>
+      </c>
+      <c r="J31" s="17">
+        <v>20</v>
+      </c>
       <c r="K31" s="17">
         <v>4</v>
       </c>
@@ -2601,8 +2693,12 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="I32" s="17">
+        <v>4</v>
+      </c>
+      <c r="J32" s="17">
+        <v>21</v>
+      </c>
       <c r="K32" s="17">
         <v>4</v>
       </c>
@@ -2643,8 +2739,12 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="I33" s="17">
+        <v>4</v>
+      </c>
+      <c r="J33" s="17">
+        <v>22</v>
+      </c>
       <c r="K33" s="17">
         <v>4</v>
       </c>
@@ -2675,13 +2775,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="E3:S3"/>
     <mergeCell ref="E4:S4"/>
@@ -2697,6 +2790,13 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2707,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE717252-590C-4516-9793-9B1E0FC3DA27}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BG3Modding\FF14Astrologian\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63F154-7C21-4500-9AD3-0CFC0F87ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B9E94-A3C6-48FF-A8AF-A1BA16B94D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F363394A-5768-46C7-B066-FEA8E3D644E4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="295">
   <si>
     <t>凶星</t>
   </si>
@@ -126,9 +126,6 @@
     <t>中重力</t>
   </si>
   <si>
-    <t>擢升</t>
-  </si>
-  <si>
     <t>大宇宙</t>
   </si>
   <si>
@@ -205,10 +202,6 @@
   </si>
   <si>
     <t>范围化</t>
-  </si>
-  <si>
-    <t>18m，单体
-豁免检定和AC增加施法者的熟练项加值</t>
   </si>
   <si>
     <t>18m，单体
@@ -223,31 +216,11 @@
 优势，重击需求-1</t>
   </si>
   <si>
-    <t>18m，单体
-效果量1.5倍</t>
-  </si>
-  <si>
-    <t>9m，范围
-效果量0.5倍</t>
-  </si>
-  <si>
     <t>9m，范围
 附赠动作+1</t>
   </si>
   <si>
     <t>18m，单体
-使用法术后获得环位一半的魔力充能（类似奥术回想充能），使用魔力充能回复法术位无需消耗动作或附赠动作，魔力充能在奥秘卡效果结束时清空</t>
-  </si>
-  <si>
-    <t>18m，单体
-魔力充能获取量提升至法术环位的四分之三</t>
-  </si>
-  <si>
-    <t>9m，范围
-魔力充能获取量降低至法术环位的四分之一</t>
-  </si>
-  <si>
-    <t>18m，单体
 追加每回合可以免费跳跃一次</t>
   </si>
   <si>
@@ -264,10 +237,6 @@
   </si>
   <si>
     <t>18m，单体
-伤害额外附加1d8（B类）</t>
-  </si>
-  <si>
-    <t>18m，单体
 附赠动作+2</t>
   </si>
   <si>
@@ -1072,11 +1041,39 @@
     <t>18m，魅力豁免，5回合</t>
   </si>
   <si>
+    <t>康复</t>
+  </si>
+  <si>
     <t>18m，单体
-每回合一次，伤害额外附加2d6（A类）</t>
-  </si>
-  <si>
-    <t>康复</t>
+伤害额外附加1d8（A类）</t>
+  </si>
+  <si>
+    <t>18m，单体
+伤害额外附加1d6（A类）+1d6（反应）</t>
+  </si>
+  <si>
+    <t>18m，单体
+使用法术后获得环位两倍的星力充能，使用星力充能回复法术位无需消耗动作或附赠动作，星力充能在奥秘卡效果结束时清空</t>
+  </si>
+  <si>
+    <t>18m，单体
+星力充能获取量提升至法术环位的三倍</t>
+  </si>
+  <si>
+    <t>9m，范围
+星力充能获取量降低至等同于法术环位</t>
+  </si>
+  <si>
+    <t>18m，单体
+豁免检定和AC增加施法者的熟练项加值，不会受到重击</t>
+  </si>
+  <si>
+    <t>18m，单体
+效果量2倍</t>
+  </si>
+  <si>
+    <t>9m，范围
+取消防重击效果</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,16 +1361,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1713,7 +1707,7 @@
   <dimension ref="B2:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1726,7 +1720,7 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1748,12 +1742,12 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="28" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
@@ -1772,12 +1766,12 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -1796,12 +1790,12 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="28" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -1820,12 +1814,12 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -1844,12 +1838,12 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -1868,26 +1862,26 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -1953,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17">
@@ -1975,7 +1969,7 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>3</v>
       </c>
       <c r="C15" s="17">
@@ -1988,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17">
@@ -2013,7 +2007,7 @@
       <c r="S15" s="17"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="34"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="17">
         <v>3</v>
       </c>
@@ -2027,7 +2021,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17">
@@ -2051,22 +2045,17 @@
       <c r="S16" s="17"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="33">
-        <v>4</v>
-      </c>
+      <c r="B17" s="33"/>
       <c r="C17" s="17">
         <v>4</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="17"/>
@@ -2091,20 +2080,25 @@
       <c r="S17" s="17"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="35"/>
+      <c r="B18" s="27">
+        <v>4</v>
+      </c>
       <c r="C18" s="17">
         <v>5</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="F18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="G18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="H18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="17">
@@ -2130,20 +2124,17 @@
       <c r="S18" s="17"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="35"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="17">
         <v>6</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="17"/>
@@ -2170,7 +2161,7 @@
       <c r="S19" s="17"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="34"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="17">
         <v>7</v>
       </c>
@@ -2178,10 +2169,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -2217,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>18</v>
@@ -2295,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -2373,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -2545,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -2597,7 +2588,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -2641,7 +2632,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -2687,7 +2678,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -2733,7 +2724,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -2775,6 +2766,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="E3:S3"/>
     <mergeCell ref="E4:S4"/>
@@ -2791,12 +2788,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2808,7 +2799,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2822,121 +2813,121 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D4" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>294</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +2940,7 @@
   <dimension ref="F7:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2961,275 +2952,275 @@
   <sheetData>
     <row r="7" spans="6:20" x14ac:dyDescent="0.35">
       <c r="Q7" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="6:20" x14ac:dyDescent="0.35">
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="T11" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="R12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="R13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F14" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F15" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
@@ -3266,334 +3257,334 @@
     </row>
     <row r="16" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="O16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="Q16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="R16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="17" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="P17" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="Q17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="R17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="S17" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="P18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="Q18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="R18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="S18" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="P19" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="Q19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="R19" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="S19" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="P20" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="Q20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="R20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="Q21" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F22" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.35">
       <c r="P27" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.35">
       <c r="P28" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="T28" s="1">
         <v>32</v>
@@ -3604,10 +3595,10 @@
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.35">
       <c r="P29" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="T29" s="1">
         <v>14</v>
@@ -3618,10 +3609,10 @@
     </row>
     <row r="30" spans="6:21" x14ac:dyDescent="0.35">
       <c r="P30" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="T30" s="1">
         <v>14</v>
@@ -3663,10 +3654,10 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
@@ -3674,7 +3665,7 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
@@ -3737,12 +3728,12 @@
         <v>20</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C5" s="25">
         <v>10</v>
@@ -3805,12 +3796,12 @@
         <v>40</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C6" s="25">
         <v>8</v>
@@ -3873,12 +3864,12 @@
         <v>32</v>
       </c>
       <c r="W6" s="26" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C7" s="25">
         <v>12</v>
@@ -3941,7 +3932,7 @@
         <v>48</v>
       </c>
       <c r="W7" s="26" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
@@ -3961,7 +3952,7 @@
         <v>8</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.35">
@@ -3993,7 +3984,7 @@
         <v>30</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
@@ -4025,7 +4016,7 @@
         <v>48</v>
       </c>
       <c r="W10" s="26" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.35">
@@ -4051,7 +4042,7 @@
   <sheetData>
     <row r="8" spans="6:21" x14ac:dyDescent="0.35">
       <c r="H8" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N8" s="1">
         <v>70</v>
@@ -4068,80 +4059,80 @@
     </row>
     <row r="9" spans="6:21" x14ac:dyDescent="0.35">
       <c r="H9" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="6:21" x14ac:dyDescent="0.35">
       <c r="H10" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F11" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="6:21" x14ac:dyDescent="0.35">
@@ -4149,7 +4140,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J12" s="1">
         <v>5</v>
@@ -4178,80 +4169,80 @@
     </row>
     <row r="13" spans="6:21" x14ac:dyDescent="0.35">
       <c r="G13" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F14" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="K14" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="6:21" x14ac:dyDescent="0.35">
       <c r="G15" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
@@ -4291,63 +4282,63 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H17" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.35">
@@ -4356,90 +4347,90 @@
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F19" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H20" s="14" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.35">
@@ -4448,28 +4439,28 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="12" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.35">
@@ -4480,166 +4471,166 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F23" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H24" s="14" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F26" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H27" s="14" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.35">
       <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
+      <c r="I28" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
